--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_1e-06.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_plv_by_3d_spherical_pseudoinverse_sigma_0.3_lamda_1e-06.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pseudoinverse_sr_0.4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -767,4 +769,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.32795266395037</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2738211472921345</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9132795266395037</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9084327342784636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.9991262900198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.321414465232859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8899912629001981</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8789197875434617</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.83220443083418</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.200217767272746</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9283220443083418</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9211130595716401</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.59672661528214</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4401191901415586</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8159672661528214</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8168683363186829</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.64894159984082</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8088695133808264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6764894159984083</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6564704397867867</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.68661493611536</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4124231457089385</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8268661493611538</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8271330324137663</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.0796460176991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3325247580573584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8707964601769911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.873825194727756</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.70831062552443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2189270731294528</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9070831062552445</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9068200301008634</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.17716416231974</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.30519732144312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9017716416231973</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8967378003941301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.89917732852361</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3898896697675809</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.848991773285236</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8344125440003405</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.91861521293437</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.521685890496398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8191861521293436</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8119270614024492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.47787610619469</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5892104966565966</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8247787610619468</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8058647634851624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1043307636350316</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9658073502593609</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.16814159292036</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08224716795108786</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9716814159292035</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9719141021207779</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.06489675516225</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2338844480101064</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9206489675516224</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9151156071155098</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.21090436191777</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3489841878783863</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8721090436191778</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8660907895679435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.27433628318583</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1821374218096025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9327433628318584</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9328235565111814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.05478421093608</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5807295001063418</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8305478421093608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8069665344101432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.63126843657817</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.159306241167845</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9463126843657816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9458577983801574</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.35519338402581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5419873469043524</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8035519338402581</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.801899570466162</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>73.5198401370254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7312820896273479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7351984013702542</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7125520407601396</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>78.38605870292996</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5739574193411197</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7838605870292995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.777086716874652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.1122674071575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.299530771219482</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.881122674071575</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8812652123464357</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.32153392330383</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2416527470942432</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8932153392330383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8909606827103197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.46937257242709</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3223091801919509</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8946937257242709</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8912982084193095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.16083184110589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4362867761577945</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.821608318411059</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8192312854884299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.32534883519753</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5617001698973279</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8032534883519753</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8032804410415298</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.43691554425212</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5855341701845949</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7743691554425211</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7634813072335266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.16519174041298</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09966011866830135</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9616519174041297</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9613476460494235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.1976401179941</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07596275901669287</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9719764011799411</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.972201020092173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.27433628318583</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2009883203080487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9327433628318584</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9286794972037977</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.44566129464788</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3728683354463364</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8644566129464788</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8592621011991587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>